--- a/DATA/2020 DATA/gen_bh0_01.xlsx
+++ b/DATA/2020 DATA/gen_bh0_01.xlsx
@@ -13,12 +13,351 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="251">
-  <si>
-    <t>Disease1</t>
-  </si>
-  <si>
-    <t>Disease2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="251">
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>898</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1198</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1614</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>1619</t>
+  </si>
+  <si>
+    <t>1622</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1637</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1813</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1898</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>1698</t>
+  </si>
+  <si>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>1617</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1598</t>
+  </si>
+  <si>
+    <t>1298</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1798</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1817</t>
   </si>
   <si>
     <t>code</t>
@@ -31,345 +370,6 @@
   </si>
   <si>
     <t>frequency</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>709</t>
-  </si>
-  <si>
-    <t>711</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>908</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>1198</t>
-  </si>
-  <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>1215</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>1601</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1614</t>
-  </si>
-  <si>
-    <t>1615</t>
-  </si>
-  <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>1619</t>
-  </si>
-  <si>
-    <t>1622</t>
-  </si>
-  <si>
-    <t>1634</t>
-  </si>
-  <si>
-    <t>1637</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1813</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>1307</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>1898</t>
-  </si>
-  <si>
-    <t>704</t>
-  </si>
-  <si>
-    <t>719</t>
-  </si>
-  <si>
-    <t>1698</t>
-  </si>
-  <si>
-    <t>1627</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>1617</t>
-  </si>
-  <si>
-    <t>1098</t>
-  </si>
-  <si>
-    <t>1407</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>1598</t>
-  </si>
-  <si>
-    <t>1298</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1640</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1798</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1817</t>
   </si>
   <si>
     <t xml:space="preserve">Blindness </t>
@@ -825,1323 +825,1323 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.0</v>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.0</v>
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9.0</v>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.0</v>
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12.0</v>
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13.0</v>
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>14.0</v>
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>109.0</v>
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9.0</v>
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>12.0</v>
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7.0</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>8.0</v>
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>15.0</v>
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>8.0</v>
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>8.0</v>
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>13.0</v>
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>45.0</v>
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>12.0</v>
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20.0</v>
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>31.0</v>
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B22" t="n">
-        <v>32.0</v>
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B23" t="n">
-        <v>33.0</v>
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B24" t="n">
-        <v>37.0</v>
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>40.0</v>
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B26" t="n">
-        <v>43.0</v>
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B27" t="n">
-        <v>71.0</v>
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B28" t="n">
-        <v>57.0</v>
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B29" t="n">
-        <v>58.0</v>
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B30" t="n">
-        <v>59.0</v>
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B31" t="n">
-        <v>62.0</v>
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B32" t="n">
-        <v>103.0</v>
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B33" t="n">
-        <v>22.0</v>
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B34" t="n">
-        <v>23.0</v>
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B35" t="n">
-        <v>24.0</v>
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B36" t="n">
-        <v>23.0</v>
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>24.0</v>
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>95.0</v>
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>150.0</v>
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>28.0</v>
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>150.0</v>
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>63.0</v>
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>31.0</v>
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>33.0</v>
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>37.0</v>
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B46" t="n">
-        <v>40.0</v>
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>108.0</v>
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B48" t="n">
-        <v>32.0</v>
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>33.0</v>
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B50" t="n">
-        <v>34.0</v>
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>35.0</v>
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>37.0</v>
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>40.0</v>
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B54" t="n">
-        <v>41.0</v>
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>43.0</v>
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>71.0</v>
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>33.0</v>
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>35.0</v>
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>37.0</v>
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>40.0</v>
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>43.0</v>
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>34.0</v>
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B63" t="n">
-        <v>37.0</v>
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>40.0</v>
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>41.0</v>
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>43.0</v>
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B67" t="n">
-        <v>45.0</v>
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B68" t="n">
-        <v>74.0</v>
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B69" t="n">
-        <v>37.0</v>
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B70" t="n">
-        <v>43.0</v>
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B71" t="n">
-        <v>36.0</v>
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B72" t="n">
-        <v>37.0</v>
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B73" t="n">
-        <v>40.0</v>
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B74" t="n">
-        <v>43.0</v>
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B75" t="n">
-        <v>126.0</v>
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>47.0</v>
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>126.0</v>
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B78" t="n">
-        <v>40.0</v>
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B79" t="n">
-        <v>43.0</v>
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B80" t="n">
-        <v>71.0</v>
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>41.0</v>
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B82" t="n">
-        <v>43.0</v>
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B83" t="n">
-        <v>71.0</v>
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B84" t="n">
-        <v>46.0</v>
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B85" t="n">
-        <v>128.0</v>
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="B86" t="n">
-        <v>71.0</v>
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>128.0</v>
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B88" t="n">
-        <v>113.0</v>
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>123.0</v>
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>125.0</v>
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>52.0</v>
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B92" t="n">
-        <v>54.0</v>
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B93" t="n">
-        <v>51.0</v>
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B94" t="n">
-        <v>54.0</v>
+      <c r="A94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>52.0</v>
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>54.0</v>
+      <c r="A96" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>54.0</v>
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="B98" t="n">
-        <v>80.0</v>
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>81.0</v>
+      <c r="A99" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B100" t="n">
-        <v>58.0</v>
+      <c r="A100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B101" t="n">
-        <v>58.0</v>
+      <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="B102" t="n">
-        <v>60.0</v>
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>61.0</v>
+      <c r="A103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="B104" t="n">
-        <v>62.0</v>
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="B105" t="n">
-        <v>103.0</v>
+      <c r="A105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="B106" t="n">
-        <v>114.0</v>
+      <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>68.0</v>
+      <c r="A107" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>68.0</v>
+      <c r="A108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>70.0</v>
+      <c r="A109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>71.0</v>
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="B111" t="n">
-        <v>120.0</v>
+      <c r="A111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="B112" t="n">
-        <v>71.0</v>
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="B113" t="n">
-        <v>84.0</v>
+      <c r="A113" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="B114" t="n">
-        <v>83.0</v>
+      <c r="A114" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="B115" t="n">
-        <v>74.0</v>
+      <c r="A115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>89.0</v>
+      <c r="A116" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B117" t="n">
-        <v>81.0</v>
+      <c r="A117" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="B118" t="n">
-        <v>111.0</v>
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="B119" t="n">
-        <v>81.0</v>
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="B120" t="n">
-        <v>84.0</v>
+      <c r="A120" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="B121" t="n">
-        <v>84.0</v>
+      <c r="A121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="B122" t="n">
-        <v>85.0</v>
+      <c r="A122" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="B123" t="n">
-        <v>87.0</v>
+      <c r="A123" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="B124" t="n">
-        <v>88.0</v>
+      <c r="A124" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="B125" t="n">
-        <v>150.0</v>
+      <c r="A125" t="s">
+        <v>57</v>
+      </c>
+      <c r="B125" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="B126" t="n">
-        <v>92.0</v>
+      <c r="A126" t="s">
+        <v>58</v>
+      </c>
+      <c r="B126" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="B127" t="n">
-        <v>95.0</v>
+      <c r="A127" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="B128" t="n">
-        <v>100.0</v>
+      <c r="A128" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>112.0</v>
+      <c r="A129" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="B130" t="n">
-        <v>102.0</v>
+      <c r="A130" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="B131" t="n">
-        <v>100.0</v>
+      <c r="A131" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="B132" t="n">
-        <v>106.0</v>
+      <c r="A132" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="B133" t="n">
-        <v>106.0</v>
+      <c r="A133" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="B134" t="n">
-        <v>106.0</v>
+      <c r="A134" t="s">
+        <v>64</v>
+      </c>
+      <c r="B134" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="B135" t="n">
-        <v>109.0</v>
+      <c r="A135" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="B136" t="n">
-        <v>117.0</v>
+      <c r="A136" t="s">
+        <v>66</v>
+      </c>
+      <c r="B136" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>123.0</v>
+      <c r="A137" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="B138" t="n">
-        <v>120.0</v>
+      <c r="A138" t="s">
+        <v>67</v>
+      </c>
+      <c r="B138" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="B139" t="n">
-        <v>119.0</v>
+      <c r="A139" t="s">
+        <v>68</v>
+      </c>
+      <c r="B139" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="B140" t="n">
-        <v>120.0</v>
+      <c r="A140" t="s">
+        <v>68</v>
+      </c>
+      <c r="B140" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="B141" t="n">
-        <v>122.0</v>
+      <c r="A141" t="s">
+        <v>68</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="B142" t="n">
-        <v>125.0</v>
+      <c r="A142" t="s">
+        <v>68</v>
+      </c>
+      <c r="B142" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="B143" t="n">
-        <v>123.0</v>
+      <c r="A143" t="s">
+        <v>69</v>
+      </c>
+      <c r="B143" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="B144" t="n">
-        <v>151.0</v>
+      <c r="A144" t="s">
+        <v>70</v>
+      </c>
+      <c r="B144" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="B145" t="n">
-        <v>122.0</v>
+      <c r="A145" t="s">
+        <v>71</v>
+      </c>
+      <c r="B145" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="B146" t="n">
-        <v>125.0</v>
+      <c r="A146" t="s">
+        <v>71</v>
+      </c>
+      <c r="B146" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="B147" t="n">
-        <v>126.0</v>
+      <c r="A147" t="s">
+        <v>71</v>
+      </c>
+      <c r="B147" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="B148" t="n">
-        <v>127.0</v>
+      <c r="A148" t="s">
+        <v>71</v>
+      </c>
+      <c r="B148" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="B149" t="n">
-        <v>127.0</v>
+      <c r="A149" t="s">
+        <v>72</v>
+      </c>
+      <c r="B149" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="B150" t="n">
-        <v>125.0</v>
+      <c r="A150" t="s">
+        <v>73</v>
+      </c>
+      <c r="B150" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="B151" t="n">
-        <v>126.0</v>
+      <c r="A151" t="s">
+        <v>73</v>
+      </c>
+      <c r="B151" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="B152" t="n">
-        <v>127.0</v>
+      <c r="A152" t="s">
+        <v>73</v>
+      </c>
+      <c r="B152" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="B153" t="n">
-        <v>126.0</v>
+      <c r="A153" t="s">
+        <v>74</v>
+      </c>
+      <c r="B153" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="B154" t="n">
-        <v>127.0</v>
+      <c r="A154" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="B155" t="n">
-        <v>127.0</v>
+      <c r="A155" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="B156" t="n">
-        <v>130.0</v>
+      <c r="A156" t="s">
+        <v>76</v>
+      </c>
+      <c r="B156" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="B157" t="n">
-        <v>131.0</v>
+      <c r="A157" t="s">
+        <v>76</v>
+      </c>
+      <c r="B157" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="B158" t="n">
-        <v>132.0</v>
+      <c r="A158" t="s">
+        <v>76</v>
+      </c>
+      <c r="B158" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="B159" t="n">
-        <v>136.0</v>
+      <c r="A159" t="s">
+        <v>76</v>
+      </c>
+      <c r="B159" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="B160" t="n">
-        <v>141.0</v>
+      <c r="A160" t="s">
+        <v>77</v>
+      </c>
+      <c r="B160" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="B161" t="n">
-        <v>143.0</v>
+      <c r="A161" t="s">
+        <v>77</v>
+      </c>
+      <c r="B161" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="B162" t="n">
-        <v>143.0</v>
+      <c r="A162" t="s">
+        <v>78</v>
+      </c>
+      <c r="B162" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="B163" t="n">
-        <v>143.0</v>
+      <c r="A163" t="s">
+        <v>79</v>
+      </c>
+      <c r="B163" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="B164" t="n">
-        <v>146.0</v>
+      <c r="A164" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="B165" t="n">
-        <v>149.0</v>
+      <c r="A165" t="s">
+        <v>80</v>
+      </c>
+      <c r="B165" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="B166" t="n">
-        <v>149.0</v>
+      <c r="A166" t="s">
+        <v>81</v>
+      </c>
+      <c r="B166" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2159,21 +2159,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>124</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>126</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>127</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>128</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>129</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>130</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>131</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>132</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>133</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>134</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>135</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>136</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>137</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>138</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>139</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>140</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>141</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>142</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>143</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>144</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>145</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>146</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>147</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>148</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>149</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>150</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>151</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>152</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>153</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>154</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>155</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>156</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>157</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>158</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>159</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>160</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>161</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>162</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>163</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>164</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>165</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>166</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>167</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>168</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>169</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>170</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>171</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>172</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>173</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>174</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>175</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>176</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>177</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>178</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>179</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>180</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>181</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>182</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>183</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>184</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>185</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>186</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>187</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>188</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>189</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>190</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>191</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>192</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>193</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>194</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>195</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>196</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>197</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>198</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>199</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>200</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>201</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>202</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>203</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>204</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>205</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>206</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>207</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>208</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>209</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
         <v>210</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
         <v>211</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>212</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>213</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>214</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>215</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>216</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>217</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>218</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
         <v>219</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
         <v>220</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
         <v>221</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
         <v>222</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
         <v>223</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
         <v>224</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
         <v>225</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
         <v>226</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
         <v>227</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
         <v>228</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
         <v>229</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
         <v>230</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
         <v>231</v>
